--- a/stock_market/data/sector_pe.xlsx
+++ b/stock_market/data/sector_pe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/935fcab99919995f/Desktop/Coding Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/935fcab99919995f/Desktop/coding_projects/stock_market/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{0E54C931-8E8B-4D4E-8315-5AF033B81220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4334D82-3C19-465F-9E43-B4293067F4C6}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{0E54C931-8E8B-4D4E-8315-5AF033B81220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38169960-67ED-4502-A411-4BDC4B622E94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D659D1FE-8E78-4933-9E2D-76EE7FE0FD02}"/>
   </bookViews>
@@ -38,43 +38,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>basic-materials</t>
-  </si>
-  <si>
     <t>technology</t>
   </si>
   <si>
-    <t>communication-services</t>
-  </si>
-  <si>
     <t>sectorKey</t>
   </si>
   <si>
-    <t>consumer-cyclical</t>
-  </si>
-  <si>
-    <t>consumer-defensive</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>financial-services</t>
-  </si>
-  <si>
     <t>healthcare</t>
   </si>
   <si>
     <t>industrials</t>
   </si>
   <si>
-    <t>real-estate</t>
-  </si>
-  <si>
     <t>utilities</t>
   </si>
   <si>
     <t>sectorPE</t>
+  </si>
+  <si>
+    <t>communication_services</t>
+  </si>
+  <si>
+    <t>consumer_cyclical</t>
+  </si>
+  <si>
+    <t>consumer_defensive</t>
+  </si>
+  <si>
+    <t>financial_services</t>
+  </si>
+  <si>
+    <t>basic_materials</t>
+  </si>
+  <si>
+    <t>real_estate</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,15 +465,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>21.97</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>29.21</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>24.12</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>15.03</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>18.09</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>21.37</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>27.91</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>40.65</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>24.8</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>39.5</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>20.369</v>
